--- a/www/IndicatorsPerCountry/TrinidadandTobago_GDPperCapita_TerritorialRef_1962_2012_CCode_780.xlsx
+++ b/www/IndicatorsPerCountry/TrinidadandTobago_GDPperCapita_TerritorialRef_1962_2012_CCode_780.xlsx
@@ -240,13 +240,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/TrinidadandTobago_GDPperCapita_TerritorialRef_1962_2012_CCode_780.xlsx
+++ b/www/IndicatorsPerCountry/TrinidadandTobago_GDPperCapita_TerritorialRef_1962_2012_CCode_780.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="86">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,181 +36,205 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>3674</t>
-  </si>
-  <si>
-    <t>3894</t>
-  </si>
-  <si>
-    <t>3941</t>
-  </si>
-  <si>
-    <t>3954</t>
-  </si>
-  <si>
-    <t>3914</t>
-  </si>
-  <si>
-    <t>4316</t>
-  </si>
-  <si>
-    <t>5059</t>
-  </si>
-  <si>
-    <t>5344</t>
-  </si>
-  <si>
-    <t>5609</t>
-  </si>
-  <si>
-    <t>5743</t>
-  </si>
-  <si>
-    <t>6251</t>
-  </si>
-  <si>
-    <t>6371</t>
-  </si>
-  <si>
-    <t>6514</t>
-  </si>
-  <si>
-    <t>6718</t>
-  </si>
-  <si>
-    <t>6801</t>
-  </si>
-  <si>
-    <t>7030</t>
-  </si>
-  <si>
-    <t>7234</t>
-  </si>
-  <si>
-    <t>7327</t>
-  </si>
-  <si>
-    <t>7684</t>
-  </si>
-  <si>
-    <t>7897</t>
-  </si>
-  <si>
-    <t>8244</t>
-  </si>
-  <si>
-    <t>8272</t>
-  </si>
-  <si>
-    <t>8628</t>
-  </si>
-  <si>
-    <t>8685</t>
-  </si>
-  <si>
-    <t>9053</t>
-  </si>
-  <si>
-    <t>9118</t>
-  </si>
-  <si>
-    <t>9847</t>
-  </si>
-  <si>
-    <t>10296</t>
-  </si>
-  <si>
-    <t>11319</t>
-  </si>
-  <si>
-    <t>11649</t>
-  </si>
-  <si>
-    <t>12380</t>
-  </si>
-  <si>
-    <t>12734</t>
-  </si>
-  <si>
-    <t>11776</t>
-  </si>
-  <si>
-    <t>10654</t>
-  </si>
-  <si>
-    <t>11092</t>
-  </si>
-  <si>
-    <t>10459</t>
-  </si>
-  <si>
-    <t>9957</t>
-  </si>
-  <si>
-    <t>9366</t>
-  </si>
-  <si>
-    <t>8907</t>
-  </si>
-  <si>
-    <t>8764</t>
-  </si>
-  <si>
-    <t>8852.58964143</t>
-  </si>
-  <si>
-    <t>9126.19047619</t>
-  </si>
-  <si>
-    <t>8996.83544304</t>
-  </si>
-  <si>
-    <t>8882.21343874</t>
-  </si>
-  <si>
-    <t>9255.33596838</t>
-  </si>
-  <si>
-    <t>9642.40506329</t>
-  </si>
-  <si>
-    <t>10024.5641838</t>
-  </si>
-  <si>
-    <t>10351.5873016</t>
-  </si>
-  <si>
-    <t>10865.6597774</t>
-  </si>
-  <si>
-    <t>11631.87251</t>
-  </si>
-  <si>
-    <t>12219.6485623</t>
-  </si>
-  <si>
-    <t>12768.6148919</t>
-  </si>
-  <si>
-    <t>13209.470305</t>
-  </si>
-  <si>
-    <t>15160.2254428</t>
-  </si>
-  <si>
-    <t>16412.4293785</t>
-  </si>
-  <si>
-    <t>17327.4050121</t>
-  </si>
-  <si>
-    <t>19854.2510121</t>
-  </si>
-  <si>
-    <t>20801.297648</t>
-  </si>
-  <si>
-    <t>21314.378554</t>
+    <t>5856</t>
+  </si>
+  <si>
+    <t>6207</t>
+  </si>
+  <si>
+    <t>6282</t>
+  </si>
+  <si>
+    <t>6303</t>
+  </si>
+  <si>
+    <t>6239</t>
+  </si>
+  <si>
+    <t>6880</t>
+  </si>
+  <si>
+    <t>8064</t>
+  </si>
+  <si>
+    <t>8518</t>
+  </si>
+  <si>
+    <t>8941</t>
+  </si>
+  <si>
+    <t>9154</t>
+  </si>
+  <si>
+    <t>9964</t>
+  </si>
+  <si>
+    <t>10155</t>
+  </si>
+  <si>
+    <t>10383</t>
+  </si>
+  <si>
+    <t>10708</t>
+  </si>
+  <si>
+    <t>10841</t>
+  </si>
+  <si>
+    <t>11206</t>
+  </si>
+  <si>
+    <t>11531</t>
+  </si>
+  <si>
+    <t>11679</t>
+  </si>
+  <si>
+    <t>12248</t>
+  </si>
+  <si>
+    <t>12588</t>
+  </si>
+  <si>
+    <t>13141</t>
+  </si>
+  <si>
+    <t>13185</t>
+  </si>
+  <si>
+    <t>13753</t>
+  </si>
+  <si>
+    <t>13844</t>
+  </si>
+  <si>
+    <t>14430</t>
+  </si>
+  <si>
+    <t>14534</t>
+  </si>
+  <si>
+    <t>15696</t>
+  </si>
+  <si>
+    <t>16412</t>
+  </si>
+  <si>
+    <t>18042</t>
+  </si>
+  <si>
+    <t>18568</t>
+  </si>
+  <si>
+    <t>19734</t>
+  </si>
+  <si>
+    <t>20298</t>
+  </si>
+  <si>
+    <t>18771</t>
+  </si>
+  <si>
+    <t>16982</t>
+  </si>
+  <si>
+    <t>17680</t>
+  </si>
+  <si>
+    <t>16671</t>
+  </si>
+  <si>
+    <t>15871</t>
+  </si>
+  <si>
+    <t>14929</t>
+  </si>
+  <si>
+    <t>14198</t>
+  </si>
+  <si>
+    <t>13970</t>
+  </si>
+  <si>
+    <t>14112</t>
+  </si>
+  <si>
+    <t>14060.7363479122</t>
+  </si>
+  <si>
+    <t>14195.951786892</t>
+  </si>
+  <si>
+    <t>13745.7971231191</t>
+  </si>
+  <si>
+    <t>13350.8961598206</t>
+  </si>
+  <si>
+    <t>14187.6589255786</t>
+  </si>
+  <si>
+    <t>15004.2643265349</t>
+  </si>
+  <si>
+    <t>15931.671547626</t>
+  </si>
+  <si>
+    <t>17013.7547678161</t>
+  </si>
+  <si>
+    <t>18159.9159015183</t>
+  </si>
+  <si>
+    <t>19179.918727575</t>
+  </si>
+  <si>
+    <t>19736.6794680486</t>
+  </si>
+  <si>
+    <t>21052.4491412585</t>
+  </si>
+  <si>
+    <t>23814.0666734985</t>
+  </si>
+  <si>
+    <t>25403.2691213553</t>
+  </si>
+  <si>
+    <t>26651.8330097668</t>
+  </si>
+  <si>
+    <t>29792.4229764353</t>
+  </si>
+  <si>
+    <t>30806.1738107431</t>
+  </si>
+  <si>
+    <t>31434.3039014147</t>
+  </si>
+  <si>
+    <t>29657.4630620824</t>
+  </si>
+  <si>
+    <t>30235.9946901819</t>
+  </si>
+  <si>
+    <t>29745</t>
+  </si>
+  <si>
+    <t>30157</t>
+  </si>
+  <si>
+    <t>30987</t>
+  </si>
+  <si>
+    <t>30842</t>
+  </si>
+  <si>
+    <t>30702</t>
+  </si>
+  <si>
+    <t>29178</t>
   </si>
   <si>
     <t>Description</t>
@@ -1317,6 +1341,142 @@
         <v>65</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>780.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>780.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>780.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>780.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>780.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>780.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>780.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>780.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1332,50 +1492,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
